--- a/Excel-Assessment-10.10.19.xlsx
+++ b/Excel-Assessment-10.10.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\DATA\TTP-Excel-Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21586BE5-6587-40D4-9353-4C70EE734A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8634FE60-15D7-42FD-A51F-29F89F728249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{953B05E5-DDFD-C748-8195-189FAFDAC1FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{953B05E5-DDFD-C748-8195-189FAFDAC1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem1-DATA" sheetId="8" r:id="rId1"/>
@@ -2480,7 +2480,7 @@
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -2694,6 +2694,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="10" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2727,10 +2731,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -19308,18 +19309,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>635</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89" t="s">
         <v>634</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="1" t="s">
         <v>557</v>
       </c>
@@ -19328,13 +19329,13 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="88" t="s">
+      <c r="O1" s="92" t="s">
         <v>650</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -19394,11 +19395,11 @@
       <c r="S2" s="66" t="s">
         <v>644</v>
       </c>
-      <c r="U2" s="90" t="s">
+      <c r="U2" s="94" t="s">
         <v>642</v>
       </c>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
     </row>
     <row r="3" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
@@ -19471,10 +19472,10 @@
       <c r="U3" s="77" t="s">
         <v>645</v>
       </c>
-      <c r="V3" s="80">
+      <c r="V3" s="84">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="W3" s="80"/>
+      <c r="W3" s="84"/>
     </row>
     <row r="4" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
@@ -19543,11 +19544,11 @@
         <f t="shared" ref="S4:S67" si="8">(R4-L4)/ABS(L4)</f>
         <v>4.358339401197604</v>
       </c>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="86" t="s">
         <v>646</v>
       </c>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
     </row>
     <row r="5" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
@@ -19619,7 +19620,7 @@
       <c r="U5" s="78" t="s">
         <v>647</v>
       </c>
-      <c r="V5" s="81">
+      <c r="V5" s="85">
         <v>166000</v>
       </c>
       <c r="W5" s="68">
@@ -19696,7 +19697,7 @@
       <c r="U6" s="78" t="s">
         <v>648</v>
       </c>
-      <c r="V6" s="81"/>
+      <c r="V6" s="85"/>
       <c r="W6" s="69">
         <v>0</v>
       </c>
@@ -53454,14 +53455,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D74F88-2826-7846-92DA-FFE8084EB78D}">
   <dimension ref="B1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="93"/>
+    <col min="6" max="6" width="11.19921875" style="82"/>
     <col min="9" max="9" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -53491,7 +53492,7 @@
       <c r="E7" s="40" t="s">
         <v>571</v>
       </c>
-      <c r="F7" s="91"/>
+      <c r="F7" s="80"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="41">
@@ -53503,11 +53504,11 @@
       <c r="D8" s="42">
         <v>73</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="83">
         <f>VLOOKUP(D8,$I$17:$J$21,2,TRUE)</f>
         <v>40</v>
       </c>
-      <c r="F8" s="92"/>
+      <c r="F8" s="81"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="41">
@@ -53519,11 +53520,11 @@
       <c r="D9" s="42">
         <v>220</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="83">
         <f t="shared" ref="E9:E32" si="0">VLOOKUP(D9,$I$17:$J$21,2,TRUE)</f>
         <v>100</v>
       </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="81"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="41">
@@ -53535,11 +53536,11 @@
       <c r="D10" s="42">
         <v>92</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="83">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F10" s="92"/>
+      <c r="F10" s="81"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="41">
@@ -53551,11 +53552,11 @@
       <c r="D11" s="42">
         <v>77</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F11" s="92"/>
+      <c r="F11" s="81"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="41">
@@ -53567,11 +53568,11 @@
       <c r="D12" s="42">
         <v>20</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="81"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="41">
@@ -53583,11 +53584,11 @@
       <c r="D13" s="42">
         <v>93</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="83">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F13" s="92"/>
+      <c r="F13" s="81"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="41">
@@ -53599,11 +53600,11 @@
       <c r="D14" s="42">
         <v>90</v>
       </c>
-      <c r="E14" s="94">
+      <c r="E14" s="83">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F14" s="92"/>
+      <c r="F14" s="81"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="41">
@@ -53615,11 +53616,11 @@
       <c r="D15" s="42">
         <v>88</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F15" s="92"/>
+      <c r="F15" s="81"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="41">
@@ -53631,11 +53632,11 @@
       <c r="D16" s="42">
         <v>77</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F16" s="92"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="41">
@@ -53647,11 +53648,11 @@
       <c r="D17" s="42">
         <v>81</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F17" s="92"/>
+      <c r="F17" s="81"/>
       <c r="I17" s="40" t="s">
         <v>570</v>
       </c>
@@ -53669,11 +53670,11 @@
       <c r="D18" s="42">
         <v>81</v>
       </c>
-      <c r="E18" s="94">
+      <c r="E18" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F18" s="92"/>
+      <c r="F18" s="81"/>
       <c r="I18" s="42">
         <v>0</v>
       </c>
@@ -53691,11 +53692,11 @@
       <c r="D19" s="42">
         <v>86</v>
       </c>
-      <c r="E19" s="94">
+      <c r="E19" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F19" s="92"/>
+      <c r="F19" s="81"/>
       <c r="I19" s="42">
         <v>45</v>
       </c>
@@ -53713,11 +53714,11 @@
       <c r="D20" s="42">
         <v>91</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="83">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F20" s="92"/>
+      <c r="F20" s="81"/>
       <c r="I20" s="42">
         <v>90</v>
       </c>
@@ -53735,11 +53736,11 @@
       <c r="D21" s="42">
         <v>84</v>
       </c>
-      <c r="E21" s="94">
+      <c r="E21" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F21" s="92"/>
+      <c r="F21" s="81"/>
       <c r="I21" s="42">
         <v>150</v>
       </c>
@@ -53757,11 +53758,11 @@
       <c r="D22" s="42">
         <v>89</v>
       </c>
-      <c r="E22" s="94">
+      <c r="E22" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F22" s="92"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="41">
@@ -53773,11 +53774,11 @@
       <c r="D23" s="42">
         <v>74</v>
       </c>
-      <c r="E23" s="94">
+      <c r="E23" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F23" s="92"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="41">
@@ -53789,11 +53790,11 @@
       <c r="D24" s="42">
         <v>86</v>
       </c>
-      <c r="E24" s="94">
+      <c r="E24" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F24" s="92"/>
+      <c r="F24" s="81"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="41">
@@ -53805,11 +53806,11 @@
       <c r="D25" s="42">
         <v>94</v>
       </c>
-      <c r="E25" s="94">
+      <c r="E25" s="83">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F25" s="92"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="41">
@@ -53821,11 +53822,11 @@
       <c r="D26" s="42">
         <v>70</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E26" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F26" s="92"/>
+      <c r="F26" s="81"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="41">
@@ -53837,11 +53838,11 @@
       <c r="D27" s="42">
         <v>0</v>
       </c>
-      <c r="E27" s="94">
+      <c r="E27" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="92"/>
+      <c r="F27" s="81"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="41">
@@ -53853,11 +53854,11 @@
       <c r="D28" s="42">
         <v>30</v>
       </c>
-      <c r="E28" s="94">
+      <c r="E28" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="92"/>
+      <c r="F28" s="81"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
@@ -53869,11 +53870,11 @@
       <c r="D29" s="42">
         <v>88</v>
       </c>
-      <c r="E29" s="94">
+      <c r="E29" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F29" s="92"/>
+      <c r="F29" s="81"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
@@ -53885,11 +53886,11 @@
       <c r="D30" s="42">
         <v>94</v>
       </c>
-      <c r="E30" s="94">
+      <c r="E30" s="83">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F30" s="92"/>
+      <c r="F30" s="81"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
@@ -53901,11 +53902,11 @@
       <c r="D31" s="42">
         <v>84</v>
       </c>
-      <c r="E31" s="94">
+      <c r="E31" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F31" s="92"/>
+      <c r="F31" s="81"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
@@ -53917,11 +53918,11 @@
       <c r="D32" s="42">
         <v>79</v>
       </c>
-      <c r="E32" s="94">
+      <c r="E32" s="83">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F32" s="92"/>
+      <c r="F32" s="81"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
@@ -53937,8 +53938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949AA1C7-B5A7-D644-8FE2-83A79C9C7042}">
   <dimension ref="C1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -54026,10 +54027,22 @@
       <c r="J8" s="48">
         <v>60.93</v>
       </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="43"/>
+      <c r="K8" s="95">
+        <f>MIN(D8:J8)</f>
+        <v>57.97</v>
+      </c>
+      <c r="L8" s="49" t="str">
+        <f>INDEX($D$7:$J$7,,MATCH(K8,D8:J8,0))</f>
+        <v>Supplier 1</v>
+      </c>
+      <c r="M8" s="49">
+        <f>MAX(D8:J8)</f>
+        <v>72.819999999999993</v>
+      </c>
+      <c r="N8" s="43" t="str">
+        <f>INDEX($D$7:$J$7,,MATCH(M8,D8:J8,0))</f>
+        <v>Supplier 6</v>
+      </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -54056,10 +54069,22 @@
       <c r="J9" s="48">
         <v>51.64</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="43"/>
+      <c r="K9" s="95">
+        <f>MIN(D9:J9)</f>
+        <v>20</v>
+      </c>
+      <c r="L9" s="49" t="str">
+        <f t="shared" ref="L9:L24" si="0">INDEX($D$7:$J$7,,MATCH(K9,D9:J9,0))</f>
+        <v>Supplier 3</v>
+      </c>
+      <c r="M9" s="49">
+        <f t="shared" ref="M9:M24" si="1">MAX(D9:J9)</f>
+        <v>52.58</v>
+      </c>
+      <c r="N9" s="43" t="str">
+        <f t="shared" ref="N9:N24" si="2">INDEX($D$7:$J$7,,MATCH(M9,D9:J9,0))</f>
+        <v>Supplier 6</v>
+      </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="47" t="s">
@@ -54086,10 +54111,22 @@
       <c r="J10" s="48">
         <v>64.55</v>
       </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="43"/>
+      <c r="K10" s="95">
+        <f t="shared" ref="K9:K24" si="3">MIN(D10:J10)</f>
+        <v>28.81</v>
+      </c>
+      <c r="L10" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 5</v>
+      </c>
+      <c r="M10" s="49">
+        <f t="shared" si="1"/>
+        <v>74.77</v>
+      </c>
+      <c r="N10" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 6</v>
+      </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="47" t="s">
@@ -54116,10 +54153,22 @@
       <c r="J11" s="48">
         <v>48.59</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="43"/>
+      <c r="K11" s="95">
+        <f t="shared" si="3"/>
+        <v>29.69</v>
+      </c>
+      <c r="L11" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 5</v>
+      </c>
+      <c r="M11" s="49">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="N11" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 3</v>
+      </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="47" t="s">
@@ -54146,10 +54195,22 @@
       <c r="J12" s="48">
         <v>43</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="43"/>
+      <c r="K12" s="95">
+        <f t="shared" si="3"/>
+        <v>32.44</v>
+      </c>
+      <c r="L12" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 2</v>
+      </c>
+      <c r="M12" s="49">
+        <f t="shared" si="1"/>
+        <v>72.36</v>
+      </c>
+      <c r="N12" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 1</v>
+      </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -54176,10 +54237,22 @@
       <c r="J13" s="48">
         <v>73.069999999999993</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="43"/>
+      <c r="K13" s="95">
+        <f t="shared" si="3"/>
+        <v>26.32</v>
+      </c>
+      <c r="L13" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 3</v>
+      </c>
+      <c r="M13" s="49">
+        <f t="shared" si="1"/>
+        <v>73.069999999999993</v>
+      </c>
+      <c r="N13" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 7</v>
+      </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="47" t="s">
@@ -54206,10 +54279,22 @@
       <c r="J14" s="48">
         <v>56.33</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="43"/>
+      <c r="K14" s="95">
+        <f t="shared" si="3"/>
+        <v>28.11</v>
+      </c>
+      <c r="L14" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 5</v>
+      </c>
+      <c r="M14" s="49">
+        <f t="shared" si="1"/>
+        <v>68.8</v>
+      </c>
+      <c r="N14" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 2</v>
+      </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="47" t="s">
@@ -54236,10 +54321,22 @@
       <c r="J15" s="48">
         <v>67.209999999999994</v>
       </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="43"/>
+      <c r="K15" s="95">
+        <f t="shared" si="3"/>
+        <v>39.22</v>
+      </c>
+      <c r="L15" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 5</v>
+      </c>
+      <c r="M15" s="49">
+        <f t="shared" si="1"/>
+        <v>74.569999999999993</v>
+      </c>
+      <c r="N15" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 1</v>
+      </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="47" t="s">
@@ -54266,10 +54363,22 @@
       <c r="J16" s="48">
         <v>48.83</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="43"/>
+      <c r="K16" s="95">
+        <f t="shared" si="3"/>
+        <v>47.16</v>
+      </c>
+      <c r="L16" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 5</v>
+      </c>
+      <c r="M16" s="49">
+        <f t="shared" si="1"/>
+        <v>72.78</v>
+      </c>
+      <c r="N16" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 6</v>
+      </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -54296,10 +54405,22 @@
       <c r="J17" s="48">
         <v>30.49</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="43"/>
+      <c r="K17" s="95">
+        <f t="shared" si="3"/>
+        <v>26.44</v>
+      </c>
+      <c r="L17" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 6</v>
+      </c>
+      <c r="M17" s="49">
+        <f t="shared" si="1"/>
+        <v>70.11</v>
+      </c>
+      <c r="N17" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 2</v>
+      </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C18" s="47" t="s">
@@ -54326,10 +54447,22 @@
       <c r="J18" s="48">
         <v>65.290000000000006</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="43"/>
+      <c r="K18" s="95">
+        <f t="shared" si="3"/>
+        <v>39.92</v>
+      </c>
+      <c r="L18" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 1</v>
+      </c>
+      <c r="M18" s="49">
+        <f t="shared" si="1"/>
+        <v>71.14</v>
+      </c>
+      <c r="N18" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 3</v>
+      </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C19" s="47" t="s">
@@ -54356,10 +54489,22 @@
       <c r="J19" s="48">
         <v>44.78</v>
       </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="43"/>
+      <c r="K19" s="95">
+        <f t="shared" si="3"/>
+        <v>30.53</v>
+      </c>
+      <c r="L19" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 4</v>
+      </c>
+      <c r="M19" s="49">
+        <f t="shared" si="1"/>
+        <v>62.71</v>
+      </c>
+      <c r="N19" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 5</v>
+      </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C20" s="47" t="s">
@@ -54386,10 +54531,22 @@
       <c r="J20" s="48">
         <v>34.57</v>
       </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="43"/>
+      <c r="K20" s="95">
+        <f t="shared" si="3"/>
+        <v>34.57</v>
+      </c>
+      <c r="L20" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 7</v>
+      </c>
+      <c r="M20" s="49">
+        <f t="shared" si="1"/>
+        <v>72.040000000000006</v>
+      </c>
+      <c r="N20" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 4</v>
+      </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -54416,10 +54573,22 @@
       <c r="J21" s="48">
         <v>26.93</v>
       </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="43"/>
+      <c r="K21" s="95">
+        <f t="shared" si="3"/>
+        <v>26.93</v>
+      </c>
+      <c r="L21" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 7</v>
+      </c>
+      <c r="M21" s="49">
+        <f t="shared" si="1"/>
+        <v>62.3</v>
+      </c>
+      <c r="N21" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 3</v>
+      </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" s="47" t="s">
@@ -54446,10 +54615,22 @@
       <c r="J22" s="48">
         <v>58.85</v>
       </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="43"/>
+      <c r="K22" s="95">
+        <f t="shared" si="3"/>
+        <v>27.49</v>
+      </c>
+      <c r="L22" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 6</v>
+      </c>
+      <c r="M22" s="49">
+        <f t="shared" si="1"/>
+        <v>73.59</v>
+      </c>
+      <c r="N22" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 1</v>
+      </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C23" s="47" t="s">
@@ -54476,10 +54657,22 @@
       <c r="J23" s="48">
         <v>46.65</v>
       </c>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="43"/>
+      <c r="K23" s="95">
+        <f t="shared" si="3"/>
+        <v>32.81</v>
+      </c>
+      <c r="L23" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 5</v>
+      </c>
+      <c r="M23" s="49">
+        <f t="shared" si="1"/>
+        <v>62.93</v>
+      </c>
+      <c r="N23" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 2</v>
+      </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C24" s="47" t="s">
@@ -54506,10 +54699,22 @@
       <c r="J24" s="48">
         <v>36.049999999999997</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="43"/>
+      <c r="K24" s="95">
+        <f t="shared" si="3"/>
+        <v>36.049999999999997</v>
+      </c>
+      <c r="L24" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplier 7</v>
+      </c>
+      <c r="M24" s="49">
+        <f t="shared" si="1"/>
+        <v>62.1</v>
+      </c>
+      <c r="N24" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Supplier 4</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D8:J24">

--- a/Excel-Assessment-10.10.19.xlsx
+++ b/Excel-Assessment-10.10.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\DATA\TTP-Excel-Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8634FE60-15D7-42FD-A51F-29F89F728249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C67B3D1-0721-46B8-9BF1-F6B4C09621A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{953B05E5-DDFD-C748-8195-189FAFDAC1FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{953B05E5-DDFD-C748-8195-189FAFDAC1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem1-DATA" sheetId="8" r:id="rId1"/>
@@ -2319,7 +2319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2474,13 +2474,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -2698,6 +2778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="10" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2731,7 +2812,39 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2774,15 +2887,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>350763</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>74929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97498</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2811,8 +2924,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="203200" y="749300"/>
-          <a:ext cx="8636000" cy="5600700"/>
+          <a:off x="350763" y="498262"/>
+          <a:ext cx="5758068" cy="3420596"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19309,18 +19422,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>635</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90" t="s">
         <v>634</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
       <c r="I1" s="1" t="s">
         <v>557</v>
       </c>
@@ -19329,13 +19442,13 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="92" t="s">
+      <c r="O1" s="93" t="s">
         <v>650</v>
       </c>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -19395,11 +19508,11 @@
       <c r="S2" s="66" t="s">
         <v>644</v>
       </c>
-      <c r="U2" s="94" t="s">
+      <c r="U2" s="95" t="s">
         <v>642</v>
       </c>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
     </row>
     <row r="3" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
@@ -19472,10 +19585,10 @@
       <c r="U3" s="77" t="s">
         <v>645</v>
       </c>
-      <c r="V3" s="84">
+      <c r="V3" s="85">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="W3" s="84"/>
+      <c r="W3" s="85"/>
     </row>
     <row r="4" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
@@ -19544,11 +19657,11 @@
         <f t="shared" ref="S4:S67" si="8">(R4-L4)/ABS(L4)</f>
         <v>4.358339401197604</v>
       </c>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="87" t="s">
         <v>646</v>
       </c>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
     </row>
     <row r="5" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
@@ -19620,7 +19733,7 @@
       <c r="U5" s="78" t="s">
         <v>647</v>
       </c>
-      <c r="V5" s="85">
+      <c r="V5" s="86">
         <v>166000</v>
       </c>
       <c r="W5" s="68">
@@ -19697,7 +19810,7 @@
       <c r="U6" s="78" t="s">
         <v>648</v>
       </c>
-      <c r="V6" s="85"/>
+      <c r="V6" s="86"/>
       <c r="W6" s="69">
         <v>0</v>
       </c>
@@ -53938,7 +54051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949AA1C7-B5A7-D644-8FE2-83A79C9C7042}">
   <dimension ref="C1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -54027,7 +54140,7 @@
       <c r="J8" s="48">
         <v>60.93</v>
       </c>
-      <c r="K8" s="95">
+      <c r="K8" s="84">
         <f>MIN(D8:J8)</f>
         <v>57.97</v>
       </c>
@@ -54069,7 +54182,7 @@
       <c r="J9" s="48">
         <v>51.64</v>
       </c>
-      <c r="K9" s="95">
+      <c r="K9" s="84">
         <f>MIN(D9:J9)</f>
         <v>20</v>
       </c>
@@ -54111,8 +54224,8 @@
       <c r="J10" s="48">
         <v>64.55</v>
       </c>
-      <c r="K10" s="95">
-        <f t="shared" ref="K9:K24" si="3">MIN(D10:J10)</f>
+      <c r="K10" s="84">
+        <f t="shared" ref="K10:K24" si="3">MIN(D10:J10)</f>
         <v>28.81</v>
       </c>
       <c r="L10" s="49" t="str">
@@ -54153,7 +54266,7 @@
       <c r="J11" s="48">
         <v>48.59</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="84">
         <f t="shared" si="3"/>
         <v>29.69</v>
       </c>
@@ -54195,7 +54308,7 @@
       <c r="J12" s="48">
         <v>43</v>
       </c>
-      <c r="K12" s="95">
+      <c r="K12" s="84">
         <f t="shared" si="3"/>
         <v>32.44</v>
       </c>
@@ -54237,7 +54350,7 @@
       <c r="J13" s="48">
         <v>73.069999999999993</v>
       </c>
-      <c r="K13" s="95">
+      <c r="K13" s="84">
         <f t="shared" si="3"/>
         <v>26.32</v>
       </c>
@@ -54279,7 +54392,7 @@
       <c r="J14" s="48">
         <v>56.33</v>
       </c>
-      <c r="K14" s="95">
+      <c r="K14" s="84">
         <f t="shared" si="3"/>
         <v>28.11</v>
       </c>
@@ -54321,7 +54434,7 @@
       <c r="J15" s="48">
         <v>67.209999999999994</v>
       </c>
-      <c r="K15" s="95">
+      <c r="K15" s="84">
         <f t="shared" si="3"/>
         <v>39.22</v>
       </c>
@@ -54363,7 +54476,7 @@
       <c r="J16" s="48">
         <v>48.83</v>
       </c>
-      <c r="K16" s="95">
+      <c r="K16" s="84">
         <f t="shared" si="3"/>
         <v>47.16</v>
       </c>
@@ -54405,7 +54518,7 @@
       <c r="J17" s="48">
         <v>30.49</v>
       </c>
-      <c r="K17" s="95">
+      <c r="K17" s="84">
         <f t="shared" si="3"/>
         <v>26.44</v>
       </c>
@@ -54447,7 +54560,7 @@
       <c r="J18" s="48">
         <v>65.290000000000006</v>
       </c>
-      <c r="K18" s="95">
+      <c r="K18" s="84">
         <f t="shared" si="3"/>
         <v>39.92</v>
       </c>
@@ -54489,7 +54602,7 @@
       <c r="J19" s="48">
         <v>44.78</v>
       </c>
-      <c r="K19" s="95">
+      <c r="K19" s="84">
         <f t="shared" si="3"/>
         <v>30.53</v>
       </c>
@@ -54531,7 +54644,7 @@
       <c r="J20" s="48">
         <v>34.57</v>
       </c>
-      <c r="K20" s="95">
+      <c r="K20" s="84">
         <f t="shared" si="3"/>
         <v>34.57</v>
       </c>
@@ -54573,7 +54686,7 @@
       <c r="J21" s="48">
         <v>26.93</v>
       </c>
-      <c r="K21" s="95">
+      <c r="K21" s="84">
         <f t="shared" si="3"/>
         <v>26.93</v>
       </c>
@@ -54615,7 +54728,7 @@
       <c r="J22" s="48">
         <v>58.85</v>
       </c>
-      <c r="K22" s="95">
+      <c r="K22" s="84">
         <f t="shared" si="3"/>
         <v>27.49</v>
       </c>
@@ -54657,7 +54770,7 @@
       <c r="J23" s="48">
         <v>46.65</v>
       </c>
-      <c r="K23" s="95">
+      <c r="K23" s="84">
         <f t="shared" si="3"/>
         <v>32.81</v>
       </c>
@@ -54699,7 +54812,7 @@
       <c r="J24" s="48">
         <v>36.049999999999997</v>
       </c>
-      <c r="K24" s="95">
+      <c r="K24" s="84">
         <f t="shared" si="3"/>
         <v>36.049999999999997</v>
       </c>
@@ -54726,22 +54839,700 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD17EFE-9EAA-D94B-9FE4-D24147ADBB36}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="21" width="5.59765625" style="96" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>546</v>
       </c>
     </row>
+    <row r="4" spans="1:21" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="97">
+        <v>1</v>
+      </c>
+      <c r="K4" s="97">
+        <v>2</v>
+      </c>
+      <c r="L4" s="97">
+        <v>3</v>
+      </c>
+      <c r="M4" s="97">
+        <v>4</v>
+      </c>
+      <c r="N4" s="97">
+        <v>5</v>
+      </c>
+      <c r="O4" s="97">
+        <v>6</v>
+      </c>
+      <c r="P4" s="97">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="97">
+        <v>8</v>
+      </c>
+      <c r="R4" s="97">
+        <v>9</v>
+      </c>
+      <c r="S4" s="97">
+        <v>10</v>
+      </c>
+      <c r="T4" s="97">
+        <v>11</v>
+      </c>
+      <c r="U4" s="97">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="97">
+        <v>1</v>
+      </c>
+      <c r="J5" s="98">
+        <f>$I5*J$4</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="99">
+        <f t="shared" ref="K5:U16" si="0">$I5*K$4</f>
+        <v>2</v>
+      </c>
+      <c r="L5" s="99">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M5" s="99">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="99">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O5" s="99">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P5" s="99">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q5" s="99">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R5" s="99">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S5" s="99">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T5" s="99">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="U5" s="100">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="97">
+        <v>2</v>
+      </c>
+      <c r="J6" s="101">
+        <f t="shared" ref="J6:J16" si="1">$I6*J$4</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="102">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L6" s="102">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M6" s="102">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="102">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O6" s="102">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P6" s="102">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q6" s="102">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R6" s="102">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S6" s="102">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="T6" s="102">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="U6" s="103">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="97">
+        <v>3</v>
+      </c>
+      <c r="J7" s="101">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K7" s="102">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L7" s="102">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M7" s="102">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N7" s="102">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O7" s="102">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="P7" s="102">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q7" s="102">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R7" s="102">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="S7" s="102">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="T7" s="102">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="U7" s="103">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="97">
+        <v>4</v>
+      </c>
+      <c r="J8" s="101">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K8" s="102">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L8" s="102">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M8" s="102">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N8" s="102">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O8" s="102">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="P8" s="102">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q8" s="102">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R8" s="102">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="S8" s="102">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="T8" s="102">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="U8" s="103">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="97">
+        <v>5</v>
+      </c>
+      <c r="J9" s="101">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K9" s="102">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L9" s="102">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M9" s="102">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N9" s="102">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="O9" s="102">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="P9" s="102">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Q9" s="102">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R9" s="102">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="S9" s="102">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="T9" s="102">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="U9" s="103">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="97">
+        <v>6</v>
+      </c>
+      <c r="J10" s="101">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K10" s="102">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L10" s="102">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M10" s="102">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N10" s="102">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O10" s="102">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="P10" s="102">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q10" s="102">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R10" s="102">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="S10" s="102">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="T10" s="102">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="U10" s="103">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="97">
+        <v>7</v>
+      </c>
+      <c r="J11" s="101">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K11" s="102">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L11" s="102">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="M11" s="102">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N11" s="102">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O11" s="102">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="P11" s="102">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="Q11" s="102">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="R11" s="102">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="S11" s="102">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="T11" s="102">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="U11" s="103">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="97">
+        <v>8</v>
+      </c>
+      <c r="J12" s="101">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K12" s="102">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L12" s="102">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M12" s="102">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N12" s="102">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="O12" s="102">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="P12" s="102">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q12" s="102">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="R12" s="102">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="S12" s="102">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="T12" s="102">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="U12" s="103">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="97">
+        <v>9</v>
+      </c>
+      <c r="J13" s="101">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="102">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L13" s="102">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="M13" s="102">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N13" s="102">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="O13" s="102">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="P13" s="102">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="Q13" s="102">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="R13" s="102">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="S13" s="102">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="T13" s="102">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="U13" s="103">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="97">
+        <v>10</v>
+      </c>
+      <c r="J14" s="101">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K14" s="102">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L14" s="102">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M14" s="102">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="N14" s="102">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="O14" s="102">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="P14" s="102">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="Q14" s="102">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="R14" s="102">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="S14" s="102">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="T14" s="102">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="U14" s="103">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="97">
+        <v>11</v>
+      </c>
+      <c r="J15" s="101">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K15" s="102">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L15" s="102">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="M15" s="102">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="N15" s="102">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="O15" s="102">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="P15" s="102">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="Q15" s="102">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="R15" s="102">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="S15" s="102">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="T15" s="102">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="U15" s="103">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="97">
+        <v>12</v>
+      </c>
+      <c r="J16" s="104">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K16" s="105">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="L16" s="105">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="M16" s="105">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="N16" s="105">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="O16" s="105">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="P16" s="105">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="Q16" s="105">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="R16" s="105">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="S16" s="105">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="T16" s="105">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="U16" s="106">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Excel-Assessment-10.10.19.xlsx
+++ b/Excel-Assessment-10.10.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\DATA\TTP-Excel-Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C67B3D1-0721-46B8-9BF1-F6B4C09621A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67593AD6-FAB6-4723-A3EC-6F17514A0DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{953B05E5-DDFD-C748-8195-189FAFDAC1FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{953B05E5-DDFD-C748-8195-189FAFDAC1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem1-DATA" sheetId="8" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Problem2-2" sheetId="7" r:id="rId5"/>
     <sheet name="Problem3" sheetId="5" r:id="rId6"/>
     <sheet name="Problem4" sheetId="6" r:id="rId7"/>
+    <sheet name="Problem4 - Alternative" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Problem1- Answer'!$A$2:$W$502</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="662">
   <si>
     <t>Company Name</t>
   </si>
@@ -2103,14 +2104,48 @@
       <t>(Based on "2019 ASSUMPTIONS" table)</t>
     </r>
   </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Up to</t>
+  </si>
+  <si>
+    <t>More Than</t>
+  </si>
+  <si>
+    <t>Number of Gallons</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>TOTAL DUE</t>
+  </si>
+  <si>
+    <t>X =</t>
+  </si>
+  <si>
+    <t>Order #</t>
+  </si>
+  <si>
+    <t>Total Due</t>
+  </si>
+  <si>
+    <t>Breakdown:</t>
+  </si>
+  <si>
+    <t>ALTERNATIVE - NOT FOR GRADING (ONLY FOR PRACTICE)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="11">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
@@ -2118,8 +2153,9 @@
     <numFmt numFmtId="168" formatCode="[$$-409]#,##0_ ;[Red]\-[$$-409]#,##0\ "/>
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2250,6 +2286,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2319,7 +2380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2554,13 +2615,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -2779,6 +2867,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="13" fillId="10" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,41 +2933,51 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -19422,18 +19553,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="99" t="s">
         <v>635</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101" t="s">
         <v>634</v>
       </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103"/>
       <c r="I1" s="1" t="s">
         <v>557</v>
       </c>
@@ -19442,13 +19573,13 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="93" t="s">
+      <c r="O1" s="104" t="s">
         <v>650</v>
       </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
     </row>
     <row r="2" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -19508,11 +19639,11 @@
       <c r="S2" s="66" t="s">
         <v>644</v>
       </c>
-      <c r="U2" s="95" t="s">
+      <c r="U2" s="106" t="s">
         <v>642</v>
       </c>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
     </row>
     <row r="3" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
@@ -19585,10 +19716,10 @@
       <c r="U3" s="77" t="s">
         <v>645</v>
       </c>
-      <c r="V3" s="85">
+      <c r="V3" s="96">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="W3" s="85"/>
+      <c r="W3" s="96"/>
     </row>
     <row r="4" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
@@ -19657,11 +19788,11 @@
         <f t="shared" ref="S4:S67" si="8">(R4-L4)/ABS(L4)</f>
         <v>4.358339401197604</v>
       </c>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="98" t="s">
         <v>646</v>
       </c>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
     </row>
     <row r="5" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
@@ -19733,7 +19864,7 @@
       <c r="U5" s="78" t="s">
         <v>647</v>
       </c>
-      <c r="V5" s="86">
+      <c r="V5" s="97">
         <v>166000</v>
       </c>
       <c r="W5" s="68">
@@ -19810,7 +19941,7 @@
       <c r="U6" s="78" t="s">
         <v>648</v>
       </c>
-      <c r="V6" s="86"/>
+      <c r="V6" s="97"/>
       <c r="W6" s="69">
         <v>0</v>
       </c>
@@ -53569,7 +53700,7 @@
   <dimension ref="B1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -54841,13 +54972,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD17EFE-9EAA-D94B-9FE4-D24147ADBB36}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="21" width="5.59765625" style="96" customWidth="1"/>
+    <col min="9" max="21" width="5.59765625" style="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -54856,675 +54987,675 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J4" s="97">
+      <c r="J4" s="86">
         <v>1</v>
       </c>
-      <c r="K4" s="97">
+      <c r="K4" s="86">
         <v>2</v>
       </c>
-      <c r="L4" s="97">
+      <c r="L4" s="86">
         <v>3</v>
       </c>
-      <c r="M4" s="97">
+      <c r="M4" s="86">
         <v>4</v>
       </c>
-      <c r="N4" s="97">
+      <c r="N4" s="86">
         <v>5</v>
       </c>
-      <c r="O4" s="97">
+      <c r="O4" s="86">
         <v>6</v>
       </c>
-      <c r="P4" s="97">
+      <c r="P4" s="86">
         <v>7</v>
       </c>
-      <c r="Q4" s="97">
+      <c r="Q4" s="86">
         <v>8</v>
       </c>
-      <c r="R4" s="97">
+      <c r="R4" s="86">
         <v>9</v>
       </c>
-      <c r="S4" s="97">
+      <c r="S4" s="86">
         <v>10</v>
       </c>
-      <c r="T4" s="97">
+      <c r="T4" s="86">
         <v>11</v>
       </c>
-      <c r="U4" s="97">
+      <c r="U4" s="86">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I5" s="97">
+      <c r="I5" s="86">
         <v>1</v>
       </c>
-      <c r="J5" s="98">
+      <c r="J5" s="87">
         <f>$I5*J$4</f>
         <v>1</v>
       </c>
-      <c r="K5" s="99">
+      <c r="K5" s="88">
         <f t="shared" ref="K5:U16" si="0">$I5*K$4</f>
         <v>2</v>
       </c>
-      <c r="L5" s="99">
+      <c r="L5" s="88">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M5" s="99">
+      <c r="M5" s="88">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N5" s="99">
+      <c r="N5" s="88">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O5" s="99">
+      <c r="O5" s="88">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P5" s="99">
+      <c r="P5" s="88">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q5" s="99">
+      <c r="Q5" s="88">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="R5" s="99">
+      <c r="R5" s="88">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="S5" s="99">
+      <c r="S5" s="88">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="T5" s="99">
+      <c r="T5" s="88">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="U5" s="100">
+      <c r="U5" s="89">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="97">
+      <c r="I6" s="86">
         <v>2</v>
       </c>
-      <c r="J6" s="101">
+      <c r="J6" s="90">
         <f t="shared" ref="J6:J16" si="1">$I6*J$4</f>
         <v>2</v>
       </c>
-      <c r="K6" s="102">
+      <c r="K6" s="91">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L6" s="102">
+      <c r="L6" s="91">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M6" s="102">
+      <c r="M6" s="91">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N6" s="102">
+      <c r="N6" s="91">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O6" s="102">
+      <c r="O6" s="91">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P6" s="102">
+      <c r="P6" s="91">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q6" s="102">
+      <c r="Q6" s="91">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="R6" s="102">
+      <c r="R6" s="91">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="S6" s="102">
+      <c r="S6" s="91">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T6" s="102">
+      <c r="T6" s="91">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="U6" s="103">
+      <c r="U6" s="92">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="97">
+      <c r="I7" s="86">
         <v>3</v>
       </c>
-      <c r="J7" s="101">
+      <c r="J7" s="90">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K7" s="102">
+      <c r="K7" s="91">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L7" s="102">
+      <c r="L7" s="91">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M7" s="102">
+      <c r="M7" s="91">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="N7" s="102">
+      <c r="N7" s="91">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="O7" s="102">
+      <c r="O7" s="91">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P7" s="102">
+      <c r="P7" s="91">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Q7" s="102">
+      <c r="Q7" s="91">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="R7" s="102">
+      <c r="R7" s="91">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="S7" s="102">
+      <c r="S7" s="91">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="T7" s="102">
+      <c r="T7" s="91">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="U7" s="103">
+      <c r="U7" s="92">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="97">
+      <c r="I8" s="86">
         <v>4</v>
       </c>
-      <c r="J8" s="101">
+      <c r="J8" s="90">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K8" s="102">
+      <c r="K8" s="91">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L8" s="102">
+      <c r="L8" s="91">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="91">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="N8" s="102">
+      <c r="N8" s="91">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="O8" s="102">
+      <c r="O8" s="91">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="P8" s="102">
+      <c r="P8" s="91">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="Q8" s="102">
+      <c r="Q8" s="91">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="R8" s="102">
+      <c r="R8" s="91">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="S8" s="102">
+      <c r="S8" s="91">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="T8" s="102">
+      <c r="T8" s="91">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="U8" s="103">
+      <c r="U8" s="92">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="97">
+      <c r="I9" s="86">
         <v>5</v>
       </c>
-      <c r="J9" s="101">
+      <c r="J9" s="90">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K9" s="102">
+      <c r="K9" s="91">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L9" s="102">
+      <c r="L9" s="91">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M9" s="102">
+      <c r="M9" s="91">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="N9" s="102">
+      <c r="N9" s="91">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="O9" s="102">
+      <c r="O9" s="91">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P9" s="102">
+      <c r="P9" s="91">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="Q9" s="102">
+      <c r="Q9" s="91">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="R9" s="102">
+      <c r="R9" s="91">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="S9" s="102">
+      <c r="S9" s="91">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="T9" s="102">
+      <c r="T9" s="91">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="U9" s="103">
+      <c r="U9" s="92">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="97">
+      <c r="I10" s="86">
         <v>6</v>
       </c>
-      <c r="J10" s="101">
+      <c r="J10" s="90">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K10" s="102">
+      <c r="K10" s="91">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L10" s="102">
+      <c r="L10" s="91">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="M10" s="102">
+      <c r="M10" s="91">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="N10" s="102">
+      <c r="N10" s="91">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="O10" s="102">
+      <c r="O10" s="91">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P10" s="102">
+      <c r="P10" s="91">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="Q10" s="102">
+      <c r="Q10" s="91">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="R10" s="102">
+      <c r="R10" s="91">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="S10" s="102">
+      <c r="S10" s="91">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="T10" s="102">
+      <c r="T10" s="91">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="U10" s="103">
+      <c r="U10" s="92">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="97">
+      <c r="I11" s="86">
         <v>7</v>
       </c>
-      <c r="J11" s="101">
+      <c r="J11" s="90">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K11" s="102">
+      <c r="K11" s="91">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L11" s="102">
+      <c r="L11" s="91">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M11" s="102">
+      <c r="M11" s="91">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="N11" s="102">
+      <c r="N11" s="91">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="O11" s="102">
+      <c r="O11" s="91">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P11" s="102">
+      <c r="P11" s="91">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="Q11" s="102">
+      <c r="Q11" s="91">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="R11" s="102">
+      <c r="R11" s="91">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="S11" s="102">
+      <c r="S11" s="91">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="T11" s="102">
+      <c r="T11" s="91">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="U11" s="103">
+      <c r="U11" s="92">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="97">
+      <c r="I12" s="86">
         <v>8</v>
       </c>
-      <c r="J12" s="101">
+      <c r="J12" s="90">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K12" s="102">
+      <c r="K12" s="91">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="L12" s="102">
+      <c r="L12" s="91">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="M12" s="102">
+      <c r="M12" s="91">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="N12" s="102">
+      <c r="N12" s="91">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="O12" s="102">
+      <c r="O12" s="91">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="P12" s="102">
+      <c r="P12" s="91">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="Q12" s="102">
+      <c r="Q12" s="91">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="R12" s="102">
+      <c r="R12" s="91">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="S12" s="102">
+      <c r="S12" s="91">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="T12" s="102">
+      <c r="T12" s="91">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="U12" s="103">
+      <c r="U12" s="92">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I13" s="97">
+      <c r="I13" s="86">
         <v>9</v>
       </c>
-      <c r="J13" s="101">
+      <c r="J13" s="90">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K13" s="102">
+      <c r="K13" s="91">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="L13" s="102">
+      <c r="L13" s="91">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="M13" s="102">
+      <c r="M13" s="91">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="N13" s="102">
+      <c r="N13" s="91">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="O13" s="102">
+      <c r="O13" s="91">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="P13" s="102">
+      <c r="P13" s="91">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="Q13" s="102">
+      <c r="Q13" s="91">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="R13" s="102">
+      <c r="R13" s="91">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="S13" s="102">
+      <c r="S13" s="91">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="T13" s="102">
+      <c r="T13" s="91">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="U13" s="103">
+      <c r="U13" s="92">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="97">
+      <c r="I14" s="86">
         <v>10</v>
       </c>
-      <c r="J14" s="101">
+      <c r="J14" s="90">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K14" s="102">
+      <c r="K14" s="91">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="L14" s="102">
+      <c r="L14" s="91">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M14" s="102">
+      <c r="M14" s="91">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="N14" s="102">
+      <c r="N14" s="91">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O14" s="102">
+      <c r="O14" s="91">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="P14" s="102">
+      <c r="P14" s="91">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="Q14" s="102">
+      <c r="Q14" s="91">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="R14" s="102">
+      <c r="R14" s="91">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="S14" s="102">
+      <c r="S14" s="91">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="T14" s="102">
+      <c r="T14" s="91">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="U14" s="103">
+      <c r="U14" s="92">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I15" s="97">
+      <c r="I15" s="86">
         <v>11</v>
       </c>
-      <c r="J15" s="101">
+      <c r="J15" s="90">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K15" s="102">
+      <c r="K15" s="91">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="L15" s="102">
+      <c r="L15" s="91">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="M15" s="102">
+      <c r="M15" s="91">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="N15" s="102">
+      <c r="N15" s="91">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="O15" s="102">
+      <c r="O15" s="91">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="P15" s="102">
+      <c r="P15" s="91">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="Q15" s="102">
+      <c r="Q15" s="91">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="R15" s="102">
+      <c r="R15" s="91">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="S15" s="102">
+      <c r="S15" s="91">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="T15" s="102">
+      <c r="T15" s="91">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="U15" s="103">
+      <c r="U15" s="92">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I16" s="97">
+      <c r="I16" s="86">
         <v>12</v>
       </c>
-      <c r="J16" s="104">
+      <c r="J16" s="93">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K16" s="105">
+      <c r="K16" s="94">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="L16" s="105">
+      <c r="L16" s="94">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="M16" s="105">
+      <c r="M16" s="94">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="N16" s="105">
+      <c r="N16" s="94">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="O16" s="105">
+      <c r="O16" s="94">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="P16" s="105">
+      <c r="P16" s="94">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="Q16" s="105">
+      <c r="Q16" s="94">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="R16" s="105">
+      <c r="R16" s="94">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="S16" s="105">
+      <c r="S16" s="94">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="T16" s="105">
+      <c r="T16" s="94">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="U16" s="106">
+      <c r="U16" s="95">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
@@ -55538,26 +55669,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B0325C-1F5D-EF4F-A77C-852F1B2B48AC}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42" style="37" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" style="37" customWidth="1"/>
     <col min="2" max="2" width="17" style="37" customWidth="1"/>
-    <col min="3" max="3" width="22" style="37" customWidth="1"/>
-    <col min="4" max="16384" width="10.796875" style="37"/>
+    <col min="3" max="4" width="22" style="37" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.796875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>548</v>
       </c>
@@ -55565,15 +55697,19 @@
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="37" t="s">
         <v>550</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="118" t="s">
+        <v>657</v>
+      </c>
+      <c r="E4" s="107"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>552</v>
       </c>
@@ -55581,17 +55717,450 @@
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
         <v>555</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="114" t="s">
+        <v>654</v>
+      </c>
+      <c r="C10" s="114"/>
+      <c r="D10" s="115" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="108"/>
+      <c r="B11" s="116" t="s">
+        <v>653</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>652</v>
+      </c>
+      <c r="D11" s="117"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="112">
+        <v>0</v>
+      </c>
+      <c r="C12" s="122">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="121">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="112">
+        <f>C12</f>
+        <v>1000</v>
+      </c>
+      <c r="C13" s="122">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="121">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="112">
+        <f>C13</f>
+        <v>2000</v>
+      </c>
+      <c r="C14" s="112" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="121">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="120"/>
+    </row>
+    <row r="17" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="108" t="s">
+        <v>658</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>655</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="109">
+        <v>1</v>
+      </c>
+      <c r="C18" s="107">
+        <v>1</v>
+      </c>
+      <c r="D18" s="111">
+        <f>IF(C18&lt;=$C$12,(C18*$D$12),IF(C18&lt;=$C$13,(($C$12*$D$12)+((C18-$C$12)*$D$13)),(($C$12*$D$12)+(($C$13-$C$12)*$D$13)+((C18-$C$13)*$D$14))))</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="109">
+        <v>2</v>
+      </c>
+      <c r="C19" s="107">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="111">
+        <f t="shared" ref="D19:D21" si="0">IF(C19&lt;=$C$12,(C19*$D$12),IF(C19&lt;=$C$13,(($C$12*$D$12)+((C19-$C$12)*$D$13)),(($C$12*$D$12)+(($C$13-$C$12)*$D$13)+((C19-$C$13)*$D$14))))</f>
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="109">
+        <v>3</v>
+      </c>
+      <c r="C20" s="107">
+        <v>1001</v>
+      </c>
+      <c r="D20" s="111">
+        <f t="shared" si="0"/>
+        <v>53052</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="109">
+        <v>4</v>
+      </c>
+      <c r="C21" s="107">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="111">
+        <f t="shared" si="0"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="109">
+        <v>5</v>
+      </c>
+      <c r="C22" s="107">
+        <v>2001</v>
+      </c>
+      <c r="D22" s="111">
+        <f>IF(C22&lt;=$C$12,(C22*$D$12),IF(C22&lt;=$C$13,(($C$12*$D$12)+((C22-$C$12)*$D$13)),(($C$12*$D$12)+(($C$13-$C$12)*$D$13)+((C22-$C$13)*$D$14))))</f>
+        <v>105051</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8F82CB-76BD-48BB-B706-B63995299DBE}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.19921875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="17" style="37" customWidth="1"/>
+    <col min="3" max="4" width="22" style="37" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="16.296875" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.796875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="113" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="D7" s="118" t="s">
+        <v>657</v>
+      </c>
+      <c r="E7" s="107"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="F11" s="110" t="s">
+        <v>658</v>
+      </c>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="108">
+        <v>1</v>
+      </c>
+      <c r="G12" s="108">
+        <v>2</v>
+      </c>
+      <c r="H12" s="108">
+        <v>3</v>
+      </c>
+      <c r="I12" s="108">
+        <v>4</v>
+      </c>
+      <c r="J12" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="114" t="s">
+        <v>654</v>
+      </c>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115" t="s">
+        <v>651</v>
+      </c>
+      <c r="F13" s="107">
+        <v>1</v>
+      </c>
+      <c r="G13" s="107">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="107">
+        <v>1001</v>
+      </c>
+      <c r="I13" s="107">
+        <v>2000</v>
+      </c>
+      <c r="J13" s="107">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="108"/>
+      <c r="B14" s="116" t="s">
+        <v>653</v>
+      </c>
+      <c r="C14" s="116" t="s">
+        <v>652</v>
+      </c>
+      <c r="D14" s="117"/>
+      <c r="F14" s="119" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="112">
+        <v>0</v>
+      </c>
+      <c r="C15" s="122">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="121">
+        <v>53</v>
+      </c>
+      <c r="F15" s="37">
+        <f>IF(F13&lt;=$C$15,F13,$C$15)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="37">
+        <f>IF(G13&lt;=$C$15,G13,$C$15)</f>
+        <v>1000</v>
+      </c>
+      <c r="H15" s="37">
+        <f>IF(H13&lt;=$C$15,H13,$C$15)</f>
+        <v>1000</v>
+      </c>
+      <c r="I15" s="37">
+        <f>IF(I13&lt;=$C$15,I13,$C$15)</f>
+        <v>1000</v>
+      </c>
+      <c r="J15" s="37">
+        <f>IF(J13&lt;=$C$15,J13,$C$15)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="112">
+        <f>C15</f>
+        <v>1000</v>
+      </c>
+      <c r="C16" s="122">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="121">
+        <v>52</v>
+      </c>
+      <c r="F16" s="37" t="str">
+        <f>IF(F13&lt;=$C$15,"",IF(F13&lt;=$C$16,(F13-$B$16),$B$16))</f>
+        <v/>
+      </c>
+      <c r="G16" s="37" t="str">
+        <f>IF(G13&lt;=$C$15,"",IF(G13&lt;=$C$16,(G13-$B$16),$B$16))</f>
+        <v/>
+      </c>
+      <c r="H16" s="37">
+        <f>IF(H13&lt;=$C$15,"",IF(H13&lt;=$C$16,(H13-$B$16),$B$16))</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="37">
+        <f>IF(I13&lt;=$C$15,"",IF(I13&lt;=$C$16,(I13-$B$16),$B$16))</f>
+        <v>1000</v>
+      </c>
+      <c r="J16" s="37">
+        <f>IF(J13&lt;=$C$15,"",IF(J13&lt;=$C$16,(J13-$B$16),$B$16))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="112">
+        <f>C16</f>
+        <v>2000</v>
+      </c>
+      <c r="C17" s="112" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="121">
+        <v>51</v>
+      </c>
+      <c r="F17" s="37" t="str">
+        <f>IF(F13&gt;$B$17,F13-$B$17,"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="37" t="str">
+        <f>IF(G13&gt;$B$17,G13-$B$17,"")</f>
+        <v/>
+      </c>
+      <c r="H17" s="37" t="str">
+        <f>IF(H13&gt;$B$17,H13-$B$17,"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="37" t="str">
+        <f>IF(I13&gt;$B$17,I13-$B$17,"")</f>
+        <v/>
+      </c>
+      <c r="J17" s="37">
+        <f>IF(J13&gt;$B$17,J13-$B$17,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="E18" s="120" t="s">
+        <v>659</v>
+      </c>
+      <c r="F18" s="111">
+        <f>SUMPRODUCT(F15:F17,D15:D17)</f>
+        <v>53</v>
+      </c>
+      <c r="G18" s="111">
+        <f t="shared" ref="G18:J18" si="0">SUMPRODUCT(G15:G17,E15:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="111">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="I18" s="111">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="J18" s="111">
+        <f t="shared" si="0"/>
+        <v>1001000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="124"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="126"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="124"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="124"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="126"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="126"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel-Assessment-10.10.19.xlsx
+++ b/Excel-Assessment-10.10.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\DATA\TTP-Excel-Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67593AD6-FAB6-4723-A3EC-6F17514A0DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB1A8C1-74E2-4037-A3E9-D8D48079FA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{953B05E5-DDFD-C748-8195-189FAFDAC1FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{953B05E5-DDFD-C748-8195-189FAFDAC1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem1-DATA" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Problem2-2" sheetId="7" r:id="rId5"/>
     <sheet name="Problem3" sheetId="5" r:id="rId6"/>
     <sheet name="Problem4" sheetId="6" r:id="rId7"/>
-    <sheet name="Problem4 - Alternative" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Problem1- Answer'!$A$2:$W$502</definedName>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="659">
   <si>
     <t>Company Name</t>
   </si>
@@ -2127,15 +2126,6 @@
   </si>
   <si>
     <t>Order #</t>
-  </si>
-  <si>
-    <t>Total Due</t>
-  </si>
-  <si>
-    <t>Breakdown:</t>
-  </si>
-  <si>
-    <t>ALTERNATIVE - NOT FOR GRADING (ONLY FOR PRACTICE)</t>
   </si>
 </sst>
 </file>
@@ -2153,9 +2143,9 @@
     <numFmt numFmtId="168" formatCode="[$$-409]#,##0_ ;[Red]\-[$$-409]#,##0\ "/>
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2288,25 +2278,8 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2648,7 +2621,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -2900,6 +2873,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="10" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2933,48 +2926,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -19553,18 +19513,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="109" t="s">
         <v>635</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111" t="s">
         <v>634</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="103"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113"/>
       <c r="I1" s="1" t="s">
         <v>557</v>
       </c>
@@ -19573,13 +19533,13 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="104" t="s">
+      <c r="O1" s="114" t="s">
         <v>650</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
     </row>
     <row r="2" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -19639,11 +19599,11 @@
       <c r="S2" s="66" t="s">
         <v>644</v>
       </c>
-      <c r="U2" s="106" t="s">
+      <c r="U2" s="116" t="s">
         <v>642</v>
       </c>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
     </row>
     <row r="3" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
@@ -19716,10 +19676,10 @@
       <c r="U3" s="77" t="s">
         <v>645</v>
       </c>
-      <c r="V3" s="96">
+      <c r="V3" s="106">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="W3" s="96"/>
+      <c r="W3" s="106"/>
     </row>
     <row r="4" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
@@ -19788,11 +19748,11 @@
         <f t="shared" ref="S4:S67" si="8">(R4-L4)/ABS(L4)</f>
         <v>4.358339401197604</v>
       </c>
-      <c r="U4" s="98" t="s">
+      <c r="U4" s="108" t="s">
         <v>646</v>
       </c>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
     </row>
     <row r="5" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
@@ -19864,7 +19824,7 @@
       <c r="U5" s="78" t="s">
         <v>647</v>
       </c>
-      <c r="V5" s="97">
+      <c r="V5" s="107">
         <v>166000</v>
       </c>
       <c r="W5" s="68">
@@ -19941,7 +19901,7 @@
       <c r="U6" s="78" t="s">
         <v>648</v>
       </c>
-      <c r="V6" s="97"/>
+      <c r="V6" s="107"/>
       <c r="W6" s="69">
         <v>0</v>
       </c>
@@ -55671,8 +55631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B0325C-1F5D-EF4F-A77C-852F1B2B48AC}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -55704,10 +55664,10 @@
       <c r="C4" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="102" t="s">
         <v>657</v>
       </c>
-      <c r="E4" s="107"/>
+      <c r="E4" s="96"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
@@ -55728,130 +55688,130 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="117" t="s">
         <v>654</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="115" t="s">
+      <c r="C10" s="117"/>
+      <c r="D10" s="118" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="108"/>
-      <c r="B11" s="116" t="s">
+      <c r="A11" s="97"/>
+      <c r="B11" s="101" t="s">
         <v>653</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="101" t="s">
         <v>652</v>
       </c>
-      <c r="D11" s="117"/>
+      <c r="D11" s="119"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="112">
+      <c r="B12" s="100">
         <v>0</v>
       </c>
-      <c r="C12" s="122">
+      <c r="C12" s="105">
         <v>1000</v>
       </c>
-      <c r="D12" s="121">
+      <c r="D12" s="104">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="112">
+      <c r="B13" s="100">
         <f>C12</f>
         <v>1000</v>
       </c>
-      <c r="C13" s="122">
+      <c r="C13" s="105">
         <v>2000</v>
       </c>
-      <c r="D13" s="121">
+      <c r="D13" s="104">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="112">
+      <c r="B14" s="100">
         <f>C13</f>
         <v>2000</v>
       </c>
-      <c r="C14" s="112" t="e">
+      <c r="C14" s="100" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="D14" s="121">
+      <c r="D14" s="104">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E15" s="120"/>
+      <c r="E15" s="103"/>
     </row>
     <row r="17" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="97" t="s">
         <v>658</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="97" t="s">
         <v>655</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="97" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="109">
+      <c r="B18" s="98">
         <v>1</v>
       </c>
-      <c r="C18" s="107">
+      <c r="C18" s="96">
         <v>1</v>
       </c>
-      <c r="D18" s="111">
+      <c r="D18" s="99">
         <f>IF(C18&lt;=$C$12,(C18*$D$12),IF(C18&lt;=$C$13,(($C$12*$D$12)+((C18-$C$12)*$D$13)),(($C$12*$D$12)+(($C$13-$C$12)*$D$13)+((C18-$C$13)*$D$14))))</f>
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="109">
+      <c r="B19" s="98">
         <v>2</v>
       </c>
-      <c r="C19" s="107">
+      <c r="C19" s="96">
         <v>1000</v>
       </c>
-      <c r="D19" s="111">
+      <c r="D19" s="99">
         <f t="shared" ref="D19:D21" si="0">IF(C19&lt;=$C$12,(C19*$D$12),IF(C19&lt;=$C$13,(($C$12*$D$12)+((C19-$C$12)*$D$13)),(($C$12*$D$12)+(($C$13-$C$12)*$D$13)+((C19-$C$13)*$D$14))))</f>
         <v>53000</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="109">
+      <c r="B20" s="98">
         <v>3</v>
       </c>
-      <c r="C20" s="107">
+      <c r="C20" s="96">
         <v>1001</v>
       </c>
-      <c r="D20" s="111">
+      <c r="D20" s="99">
         <f t="shared" si="0"/>
         <v>53052</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="109">
+      <c r="B21" s="98">
         <v>4</v>
       </c>
-      <c r="C21" s="107">
+      <c r="C21" s="96">
         <v>2000</v>
       </c>
-      <c r="D21" s="111">
+      <c r="D21" s="99">
         <f t="shared" si="0"/>
         <v>105000</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="109">
+      <c r="B22" s="98">
         <v>5</v>
       </c>
-      <c r="C22" s="107">
+      <c r="C22" s="96">
         <v>2001</v>
       </c>
-      <c r="D22" s="111">
+      <c r="D22" s="99">
         <f>IF(C22&lt;=$C$12,(C22*$D$12),IF(C22&lt;=$C$13,(($C$12*$D$12)+((C22-$C$12)*$D$13)),(($C$12*$D$12)+(($C$13-$C$12)*$D$13)+((C22-$C$13)*$D$14))))</f>
         <v>105051</v>
       </c>
@@ -55864,303 +55824,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8F82CB-76BD-48BB-B706-B63995299DBE}">
-  <dimension ref="A1:J27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.19921875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="17" style="37" customWidth="1"/>
-    <col min="3" max="4" width="22" style="37" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="16.296875" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.796875" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="113" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="37" t="s">
-        <v>550</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="D7" s="118" t="s">
-        <v>657</v>
-      </c>
-      <c r="E7" s="107"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>658</v>
-      </c>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F12" s="108">
-        <v>1</v>
-      </c>
-      <c r="G12" s="108">
-        <v>2</v>
-      </c>
-      <c r="H12" s="108">
-        <v>3</v>
-      </c>
-      <c r="I12" s="108">
-        <v>4</v>
-      </c>
-      <c r="J12" s="108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="114" t="s">
-        <v>654</v>
-      </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115" t="s">
-        <v>651</v>
-      </c>
-      <c r="F13" s="107">
-        <v>1</v>
-      </c>
-      <c r="G13" s="107">
-        <v>1000</v>
-      </c>
-      <c r="H13" s="107">
-        <v>1001</v>
-      </c>
-      <c r="I13" s="107">
-        <v>2000</v>
-      </c>
-      <c r="J13" s="107">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="116" t="s">
-        <v>653</v>
-      </c>
-      <c r="C14" s="116" t="s">
-        <v>652</v>
-      </c>
-      <c r="D14" s="117"/>
-      <c r="F14" s="119" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="112">
-        <v>0</v>
-      </c>
-      <c r="C15" s="122">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="121">
-        <v>53</v>
-      </c>
-      <c r="F15" s="37">
-        <f>IF(F13&lt;=$C$15,F13,$C$15)</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="37">
-        <f>IF(G13&lt;=$C$15,G13,$C$15)</f>
-        <v>1000</v>
-      </c>
-      <c r="H15" s="37">
-        <f>IF(H13&lt;=$C$15,H13,$C$15)</f>
-        <v>1000</v>
-      </c>
-      <c r="I15" s="37">
-        <f>IF(I13&lt;=$C$15,I13,$C$15)</f>
-        <v>1000</v>
-      </c>
-      <c r="J15" s="37">
-        <f>IF(J13&lt;=$C$15,J13,$C$15)</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="112">
-        <f>C15</f>
-        <v>1000</v>
-      </c>
-      <c r="C16" s="122">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="121">
-        <v>52</v>
-      </c>
-      <c r="F16" s="37" t="str">
-        <f>IF(F13&lt;=$C$15,"",IF(F13&lt;=$C$16,(F13-$B$16),$B$16))</f>
-        <v/>
-      </c>
-      <c r="G16" s="37" t="str">
-        <f>IF(G13&lt;=$C$15,"",IF(G13&lt;=$C$16,(G13-$B$16),$B$16))</f>
-        <v/>
-      </c>
-      <c r="H16" s="37">
-        <f>IF(H13&lt;=$C$15,"",IF(H13&lt;=$C$16,(H13-$B$16),$B$16))</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="37">
-        <f>IF(I13&lt;=$C$15,"",IF(I13&lt;=$C$16,(I13-$B$16),$B$16))</f>
-        <v>1000</v>
-      </c>
-      <c r="J16" s="37">
-        <f>IF(J13&lt;=$C$15,"",IF(J13&lt;=$C$16,(J13-$B$16),$B$16))</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="112">
-        <f>C16</f>
-        <v>2000</v>
-      </c>
-      <c r="C17" s="112" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="121">
-        <v>51</v>
-      </c>
-      <c r="F17" s="37" t="str">
-        <f>IF(F13&gt;$B$17,F13-$B$17,"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="37" t="str">
-        <f>IF(G13&gt;$B$17,G13-$B$17,"")</f>
-        <v/>
-      </c>
-      <c r="H17" s="37" t="str">
-        <f>IF(H13&gt;$B$17,H13-$B$17,"")</f>
-        <v/>
-      </c>
-      <c r="I17" s="37" t="str">
-        <f>IF(I13&gt;$B$17,I13-$B$17,"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="37">
-        <f>IF(J13&gt;$B$17,J13-$B$17,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E18" s="120" t="s">
-        <v>659</v>
-      </c>
-      <c r="F18" s="111">
-        <f>SUMPRODUCT(F15:F17,D15:D17)</f>
-        <v>53</v>
-      </c>
-      <c r="G18" s="111">
-        <f t="shared" ref="G18:J18" si="0">SUMPRODUCT(G15:G17,E15:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="111">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="I18" s="111">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="J18" s="111">
-        <f t="shared" si="0"/>
-        <v>1001000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="124"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="124"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="126"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="124"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="126"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="124"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="126"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="124"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="126"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:D14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Excel-Assessment-10.10.19.xlsx
+++ b/Excel-Assessment-10.10.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\DATA\TTP-Excel-Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB1A8C1-74E2-4037-A3E9-D8D48079FA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FAA9F1-8231-4641-8D56-F0240DCF6E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{953B05E5-DDFD-C748-8195-189FAFDAC1FE}"/>
   </bookViews>
@@ -2278,7 +2278,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2885,9 +2885,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2934,6 +2931,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -19513,18 +19513,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="108" t="s">
         <v>635</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="111" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="110" t="s">
         <v>634</v>
       </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="112"/>
       <c r="I1" s="1" t="s">
         <v>557</v>
       </c>
@@ -19533,13 +19533,13 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="114" t="s">
+      <c r="O1" s="113" t="s">
         <v>650</v>
       </c>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
     </row>
     <row r="2" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -19599,11 +19599,11 @@
       <c r="S2" s="66" t="s">
         <v>644</v>
       </c>
-      <c r="U2" s="116" t="s">
+      <c r="U2" s="115" t="s">
         <v>642</v>
       </c>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
     </row>
     <row r="3" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
@@ -19676,10 +19676,10 @@
       <c r="U3" s="77" t="s">
         <v>645</v>
       </c>
-      <c r="V3" s="106">
+      <c r="V3" s="105">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="W3" s="106"/>
+      <c r="W3" s="105"/>
     </row>
     <row r="4" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
@@ -19748,11 +19748,11 @@
         <f t="shared" ref="S4:S67" si="8">(R4-L4)/ABS(L4)</f>
         <v>4.358339401197604</v>
       </c>
-      <c r="U4" s="108" t="s">
+      <c r="U4" s="107" t="s">
         <v>646</v>
       </c>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
     </row>
     <row r="5" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
@@ -19824,7 +19824,7 @@
       <c r="U5" s="78" t="s">
         <v>647</v>
       </c>
-      <c r="V5" s="107">
+      <c r="V5" s="106">
         <v>166000</v>
       </c>
       <c r="W5" s="68">
@@ -19901,7 +19901,7 @@
       <c r="U6" s="78" t="s">
         <v>648</v>
       </c>
-      <c r="V6" s="107"/>
+      <c r="V6" s="106"/>
       <c r="W6" s="69">
         <v>0</v>
       </c>
@@ -55632,7 +55632,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -55657,14 +55657,14 @@
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="37" t="s">
         <v>550</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="119" t="s">
         <v>657</v>
       </c>
       <c r="E4" s="96"/>
@@ -55688,11 +55688,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="116" t="s">
         <v>654</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118" t="s">
+      <c r="C10" s="116"/>
+      <c r="D10" s="117" t="s">
         <v>651</v>
       </c>
     </row>
@@ -55704,16 +55704,16 @@
       <c r="C11" s="101" t="s">
         <v>652</v>
       </c>
-      <c r="D11" s="119"/>
+      <c r="D11" s="118"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="100">
         <v>0</v>
       </c>
-      <c r="C12" s="105">
+      <c r="C12" s="104">
         <v>1000</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="103">
         <v>53</v>
       </c>
     </row>
@@ -55722,10 +55722,10 @@
         <f>C12</f>
         <v>1000</v>
       </c>
-      <c r="C13" s="105">
+      <c r="C13" s="104">
         <v>2000</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="103">
         <v>52</v>
       </c>
     </row>
@@ -55738,12 +55738,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="103">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E15" s="103"/>
+      <c r="E15" s="102"/>
     </row>
     <row r="17" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="97" t="s">
